--- a/biology/Histoire de la zoologie et de la botanique/Cécile_Mourer-Chauviré/Cécile_Mourer-Chauviré.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Cécile_Mourer-Chauviré/Cécile_Mourer-Chauviré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Mourer-Chauvir%C3%A9</t>
+          <t>Cécile_Mourer-Chauviré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cécile Mourer-Chauviré est une paléontologue française née le 5 novembre 1939 à Lyon  qui a réalisé de nombreuses études  sur l'avifaune de l’Éocène et de l'Oligocène fossilisée dans les phosphorites du Quercy. Elle a contribué à éclaircir la classification et la phylogénie des Phorusrhacidae, une espèce d'oiseaux géants carnivores du Cénozoïque,  dans une série d'articles parus entre 1981 et 1983. Ses travaux ont également porté sur l'évolution et la morphologie fonctionnelle des oiseaux inaptes au vol.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Mourer-Chauvir%C3%A9</t>
+          <t>Cécile_Mourer-Chauviré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cécile Chauviré nait à Lyon en 1939 et y fait ses études. A l'Université de Lyon elle obtient différents diplômes en zoologie, botanique et géologie. Elle réalise sa thèse de 3ème cycle sur les grands mammifères du quaternaire de Châtillon-Saint-Jean qu'elle achève en 1962. Elle entre au CNRS en 1961 et entame une thèse de doctorat sur les oiseaux du Pléistocène à une époque où personne ne s'est encore consacré aux fossiles d'oiseaux en France.  Ayant épousé Roland Mourer, un ethnologue, elle le suit au Cambodge en 1964, pays dans lequel il mène des recherches archéologiques dans la région de Battambang. Ils découvrent et étudient ensemble le site préhistorique de la grotte de Laang Spean. Elle enseigne la géologie à l'Université royale de Phnom Penh jusqu'à ce que la guerre civile cambodgienne  prenne de l'ampleur en 1970[1].
-Cécile Mourer-Chauviré retourne alors en France et réintègre le CNRS. Elle achève sa Thèse d’État en 1975 qui fait d'elle la spécialiste des fossiles d'oiseaux en France et en Europe. Elle devient Directrice de recherches en 1975. Elle travaille notamment sur l'avifaune de l’Éocène et de l'Oligocène fossilisée dans les phosphorites du Quercy et effectue des séjours prolongés entre 1981 et 1984 à l'Université de Floride  pour compléter les données dont elle dispose. Elle coorganise en 1985 un congrès international à Lyon sur le thème de "L’évolution des oiseaux d’après le témoignage des fossiles” qui débouche sur la création de la Society for Avian Paleontology and Evolution (SAPE). De 1987 à 1999 elle rédige la lettre d'information annuelle de la SAPE et en assure le secréatariat. Dans le cadre des fouilles régulières qu'elle pratique sur le terrain, elle met en évidence que le Dodo blanc de l'île de la Réunion n'était en réalité qu'une espèce d'ibis.  Elle travaille notamment sur les avifaunes de plusieurs îles méditerranéennes, de Nouvelle-Calédonie et de la Réunion ainsi que sur les fossiles d'oiseaux de plusieurs pays d'Afrique qui lui permettent de contribuer à la classification et la phylogénie des Phorusrhacidae dits oiseaux-terreurs, une espèce d'oiseaux géants carnivores du Cénozoïque. Elle prend sa retraite en 2005 mais continue à participer aux travaux dans son domaine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cécile Chauviré nait à Lyon en 1939 et y fait ses études. A l'Université de Lyon elle obtient différents diplômes en zoologie, botanique et géologie. Elle réalise sa thèse de 3ème cycle sur les grands mammifères du quaternaire de Châtillon-Saint-Jean qu'elle achève en 1962. Elle entre au CNRS en 1961 et entame une thèse de doctorat sur les oiseaux du Pléistocène à une époque où personne ne s'est encore consacré aux fossiles d'oiseaux en France.  Ayant épousé Roland Mourer, un ethnologue, elle le suit au Cambodge en 1964, pays dans lequel il mène des recherches archéologiques dans la région de Battambang. Ils découvrent et étudient ensemble le site préhistorique de la grotte de Laang Spean. Elle enseigne la géologie à l'Université royale de Phnom Penh jusqu'à ce que la guerre civile cambodgienne  prenne de l'ampleur en 1970.
+Cécile Mourer-Chauviré retourne alors en France et réintègre le CNRS. Elle achève sa Thèse d’État en 1975 qui fait d'elle la spécialiste des fossiles d'oiseaux en France et en Europe. Elle devient Directrice de recherches en 1975. Elle travaille notamment sur l'avifaune de l’Éocène et de l'Oligocène fossilisée dans les phosphorites du Quercy et effectue des séjours prolongés entre 1981 et 1984 à l'Université de Floride  pour compléter les données dont elle dispose. Elle coorganise en 1985 un congrès international à Lyon sur le thème de "L’évolution des oiseaux d’après le témoignage des fossiles” qui débouche sur la création de la Society for Avian Paleontology and Evolution (SAPE). De 1987 à 1999 elle rédige la lettre d'information annuelle de la SAPE et en assure le secréatariat. Dans le cadre des fouilles régulières qu'elle pratique sur le terrain, elle met en évidence que le Dodo blanc de l'île de la Réunion n'était en réalité qu'une espèce d'ibis.  Elle travaille notamment sur les avifaunes de plusieurs îles méditerranéennes, de Nouvelle-Calédonie et de la Réunion ainsi que sur les fossiles d'oiseaux de plusieurs pays d'Afrique qui lui permettent de contribuer à la classification et la phylogénie des Phorusrhacidae dits oiseaux-terreurs, une espèce d'oiseaux géants carnivores du Cénozoïque. Elle prend sa retraite en 2005 mais continue à participer aux travaux dans son domaine.
 Elle a été élue membre correspondant de l'Académie des sciences, belles-lettres et arts de Lyon en 2018.
-Son nom est donné huit taxons fossiles (situation à 2013) Aythya chauvirae (Chevenal 1987), Cypseloides mourerchauvireae (MLíkovský 1989), Chauvireria (Boev, 1997), Pica mourerae (Seguí, 2001), Oligosylphe mourerchauvireae (Mayr &amp; SMith, 2002), Tyto mourerchauvireae (Pavia, 2004), Afrocygnus chauvireae (Louchartet et al., 2005), Asphaltoglaux cecileae (Campbell &amp; Bochenskí 2013)[1].
+Son nom est donné huit taxons fossiles (situation à 2013) Aythya chauvirae (Chevenal 1987), Cypseloides mourerchauvireae (MLíkovský 1989), Chauvireria (Boev, 1997), Pica mourerae (Seguí, 2001), Oligosylphe mourerchauvireae (Mayr &amp; SMith, 2002), Tyto mourerchauvireae (Pavia, 2004), Afrocygnus chauvireae (Louchartet et al., 2005), Asphaltoglaux cecileae (Campbell &amp; Bochenskí 2013).
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Mourer-Chauvir%C3%A9</t>
+          <t>Cécile_Mourer-Chauviré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les oiseaux du pleistocene moyen et superieur de France, Documents des Laboratoires de Géologie (Laboratoire de géologie Lyon) 1976
 Les Strigiformes (Aves) des Phosphorites du Quercy (France): Systématique, Biostratigraphie et Paléobiogéographie, Documents des Laboratoires de Géologie, Lyon 99, 1987, 89-135
